--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rf5c1e7fcff19427e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R95c68bf5d2464a41"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R95c68bf5d2464a41"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R7f36cc0b70594e5f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R7f36cc0b70594e5f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rd93f49f173384231"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rd93f49f173384231"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Re6f3e68c4f414cd0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Re6f3e68c4f414cd0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R504fa9eb886c42a1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R504fa9eb886c42a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R079fb1bfc4fb4d44"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R079fb1bfc4fb4d44"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R6799d2bf1c454ed4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R6799d2bf1c454ed4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rb81f71dc8fc1406a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rb81f71dc8fc1406a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R51ecab6300c243fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R51ecab6300c243fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R0074671a494c4f5a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R0074671a494c4f5a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R6851f204a5c14e59"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R6851f204a5c14e59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R9b49ad2ed93544b9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R9b49ad2ed93544b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R1a1824baf2bb483b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R1a1824baf2bb483b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rd610841248a04930"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rd610841248a04930"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R2f3d5c6fbf3c4200"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R2f3d5c6fbf3c4200"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rb5a922e50af34c34"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rb5a922e50af34c34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R6a347b5fdf1342fc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R6a347b5fdf1342fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R579b4bb387c64c83"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R579b4bb387c64c83"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R6621c0f4a0b04185"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R6621c0f4a0b04185"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rbb636ce2106646b6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rbb636ce2106646b6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R6976a862b0124ecb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/58_JsonFlatObjectWithParsers.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="R6976a862b0124ecb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prices Parsed" sheetId="1" r:id="Rb477b4226faf45f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
